--- a/show.xlsx
+++ b/show.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
+  <si>
+    <t>是是是</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,57 +993,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A2:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A9"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
